--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_55.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,606 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1964285714285714</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(27.771, 41.282)]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.34, 17.94)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:01:37.940000', '0:01:48.300000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:36.660000', '0:01:46.300000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_171</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1047671840354767</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F', 'F', 'F']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2333333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'E']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.59, 5.99)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.263975, 17.488465)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_53</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04601499309528507</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>isophonics_248</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_259</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.15</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['D', 'G', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(50.0, 56.61)]</t>
+          <t>[['A', 'D', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(41.7, 45.42)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:42.922000', '0:00:47.180000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_36</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.04198369565217391</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Bb:maj7', 'Bb:maj7', 'Bb:maj7']]</t>
-        </is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2363636363636364</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj7', 'G:maj7', 'G:maj7']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(314.49, 315.71)]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(183.09, 184.44)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:00.300000', '0:00:02.820000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:19.440000', '0:00:28.300000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
-        </is>
+          <t>isophonics_171</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1122994652406417</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>[['E', 'E', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.32, 10.96)]</t>
+          <t>[['A', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(59.8, 69.34)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:12.263975', '0:00:17.488465')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:46.365011', '0:00:53.946326')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3091787439613526</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(64.476575, 70.099405)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(13.878853, 22.597946)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:30.740000', '0:01:49.700000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'G']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(136.07, 138.78)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.399, 12.648)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(80.22, 87.22)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(13.34, 16.08)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1273344651952462</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E:min']]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(101.773, 108.586)]</t>
+          <t>[['Bb', 'F', 'Bb'], ['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.671853, 21.106864)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:00', '0:02:02.700000'), ('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:22.564557', '0:00:26.651269'), ('0:00:23.586235', '0:00:28.578526')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2589285714285714</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4385964912280702</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(83.2, 91.14)]</t>
+          <t>[['G/5', 'C/9', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(47.68, 51.98)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.727609', '0:00:10.723990')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.0, 5.36)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(87.66, 96.72)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_39</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06939904450590897</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'E/4', 'A']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.656213, 6.319079)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(4.875, 8.638)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(46.6, 49.04)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.921927, 21.908049)]</t>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min'], ['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.32, 8.68), (22.18, 25.4)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(21.94, 27.52), (242.22, 246.98)]</t>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2128851540616246</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:maj', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A:7/3', 'D']]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(74.84, 89.52)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(16.329446, 21.658426)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_155</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_297</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3059210526315789</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(10.46, 16.36)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.421247, 8.635573)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
